--- a/sheets/commodities.xlsx
+++ b/sheets/commodities.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t xml:space="preserve">Gold ticker </t>
   </si>
@@ -44,19 +44,166 @@
     <t xml:space="preserve">Gold supply drop ? </t>
   </si>
   <si>
+    <t xml:space="preserve">Gold prices gain values</t>
+  </si>
+  <si>
     <t xml:space="preserve">GOLD BEES !! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">when investors panic, safe-haven , fiat currency lose trust ,  stock market crashes , real estate becomes illiquid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Trading </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price of gold is tied to Physical assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank of england has $260B of gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Few banks in england , work with London Bullion Market Association to set a physical proce of gold and that price determines how much gold is worth everywhere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electronic auction by ICE benchmark administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use of Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electronics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microprocessor connectors , PCB , Wires , high quality electronics</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sterns, dental alloy , pacemaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aerospace and defense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satellite coatings , astronaut helmet visors , jet windshield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Places where gold is irreplaceable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">High reliability electronics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aerospace , defense, medical devices, gold's combination of conductivity, corrosion resistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medical Implants </t>
+  </si>
+  <si>
+    <t xml:space="preserve">biocompatibility , non-reactivity </t>
+  </si>
+  <si>
+    <t>2000–2010</t>
+  </si>
+  <si>
+    <t>2010–2020</t>
+  </si>
+  <si>
+    <t>2020–2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. of Mines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Gold Extracted (tonnes)</t>
+  </si>
+  <si>
+    <t>~25,000</t>
+  </si>
+  <si>
+    <t>~32,000</t>
+  </si>
+  <si>
+    <t>~13,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost of Mining (USD/oz)</t>
+  </si>
+  <si>
+    <t>~$350–$500/oz</t>
+  </si>
+  <si>
+    <t>~$600–$900/oz</t>
+  </si>
+  <si>
+    <t>~$900–$1,200/oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost of Refining (USD/oz)</t>
+  </si>
+  <si>
+    <t>~$20–$30/oz</t>
+  </si>
+  <si>
+    <t>~$25–$35/oz</t>
+  </si>
+  <si>
+    <t>~$30–$40/oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost of Travel (USD/oz)</t>
+  </si>
+  <si>
+    <t>~$10–$15/oz</t>
+  </si>
+  <si>
+    <t>~$10–$20/oz</t>
+  </si>
+  <si>
+    <t>~$15–$25/oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sale Revenue (USD billions)</t>
+  </si>
+  <si>
+    <t>~$250–$350</t>
+  </si>
+  <si>
+    <t>~$1,200–$1,600</t>
+  </si>
+  <si>
+    <t>~$900–$1,200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.500000"/>
+      <color indexed="64"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.500000"/>
+      <color indexed="64"/>
+      <name val="Liberation Sans"/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,8 +226,40 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,8 +776,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.421875"/>
-    <col customWidth="1" min="2" max="2" width="13.00390625"/>
+    <col customWidth="1" min="1" max="1" width="15.421875"/>
+    <col customWidth="1" min="2" max="2" width="25.421875"/>
+    <col customWidth="1" min="3" max="3" width="13.28125"/>
+    <col customWidth="1" min="4" max="4" width="14.7109375"/>
+    <col customWidth="1" min="5" max="5" width="16.00390625"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25">
@@ -635,12 +817,216 @@
       <c r="B9" t="s">
         <v>7</v>
       </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" ht="14.25">
       <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25"/>
+    <row r="18" ht="14.25">
+      <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="B19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="B20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="B21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="B25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25"/>
+    <row r="29" s="5" customFormat="1" ht="14.25">
+      <c r="B29" s="6"/>
+      <c r="C29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="B30" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="10">
+        <v>120</v>
+      </c>
+      <c r="D30" s="9">
+        <v>36</v>
+      </c>
+      <c r="E30" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" s="5" customFormat="1" ht="14.25">
+      <c r="B31" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" s="5" customFormat="1" ht="14.25">
+      <c r="B32" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" s="5" customFormat="1" ht="14.25">
+      <c r="B33" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" s="5" customFormat="1" ht="14.25">
+      <c r="B34" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" s="5" customFormat="1" ht="14.25">
+      <c r="B35" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
